--- a/Data/Globe_Valve/pitch000yaw000/Summary_pitch000yaw000.xlsx
+++ b/Data/Globe_Valve/pitch000yaw000/Summary_pitch000yaw000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udaka\Documents\GitHub\Object_Rec_Pose_Est\Data\0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udaka\Documents\GitHub\Object_Rec_Pose_Est\Data\Globe_Valve\pitch000yaw000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7701D3B8-CADE-48D2-A267-03DE712E0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2708BCDE-8058-400B-9307-E152D2AC7CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E722222-A6EB-4181-BA6F-53C1ABAE2258}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,13 +656,13 @@
         <v>8.2038155325868702E-3</v>
       </c>
       <c r="C4">
-        <v>2.8948502182105399E-3</v>
+        <v>4.9465904419104716E-3</v>
       </c>
       <c r="D4">
-        <v>4.9465904419104699E-3</v>
+        <v>1.308812488479537E-2</v>
       </c>
       <c r="E4">
-        <v>1.30881248847954E-2</v>
+        <v>2.8948502182105434E-3</v>
       </c>
       <c r="F4">
         <v>5.9525328999999996</v>
@@ -955,7 +955,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F92E77-243F-4445-8EA7-C19B55B13596}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
